--- a/biology/Médecine/Pandémie_de_Covid-19_en_Eswatini/Pandémie_de_Covid-19_en_Eswatini.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Eswatini/Pandémie_de_Covid-19_en_Eswatini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Eswatini</t>
+          <t>Pandémie_de_Covid-19_en_Eswatini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Eswatini démarre officiellement le 14 mars 2020. À la date du 15 janvier 2024, le bilan est de 1 427 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Eswatini</t>
+          <t>Pandémie_de_Covid-19_en_Eswatini</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019[2],[3]. 
-Le taux de létalité au Covid-19 a été beaucoup plus faible que le SRAS de 2003[4],[5] mais la transmission a été significativement plus élevée, avec un nombre total de décès important[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019,. 
+Le taux de létalité au Covid-19 a été beaucoup plus faible que le SRAS de 2003, mais la transmission a été significativement plus élevée, avec un nombre total de décès important. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Eswatini</t>
+          <t>Pandémie_de_Covid-19_en_Eswatini</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,44 +558,46 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 14 mars, le premier cas de Covid-19 dans le pays a été confirmé. Une femme de 33 ans, qui est revenue des États-Unis fin février et s'est ensuite rendue au Lesotho avant de rentrer chez elle en Eswatini, a été mise en quarantaine[7]. Deux cas suspects ont été identifiés au 11 mars 2020, le premier une femme rentrant du Danemark (ou peut-être de l'Allemagne[8]), et l'autre une femme ayant accueilli des visiteurs allemands[9]. 
-Le 24 mars 2020, le ministère de la santé a annoncé un cinquième cas confirmé. Un homme de 52 ans qui s'était rendu aux États-Unis au cours du même mois avait un résultat positif[10]. 
-Le 16 avril 2020, le pays a enregistré son premier décès lié au COVID-19, un homme de 59 ans atteint de diabète comme affection sous-jacente[11].
-En avril il y avait 91 nouveaux cas, portant le nombre de cas à 100 dont un décès[12].
-En mai il y avait 185 nouveaux cas et un décès, portant le nombre de cas à 285 dont deux décès[13].
-En juin il y avait 527 nouveaux cas et neuf décès, portant le nombre de cas à 812 dont onze décès[14].
-En juillet il y avait 1 836 nouveaux cas et 29 décès, portant le nombre de cas à 2 648 dont 40 décès[15].
-En août il y avait 1 929 nouveaux cas et 51 décès, portant le nombre de cas à 4 577 dont 91 décès[16].
-En septembre il y avait 885 nouveaux cas et 17 décès, portant le nombre de cas à 5 462 dont 108 décès[17].
-En octobre il y avait 455 nouveaux cas et neuf décès, portant le nombre de cas à 5 917 dont 117 décès[18].
-En novembre il y avait 502 nouveaux cas et cinq décès, portant le nombre de cas à 6 419 dont 122 décès[19].
-En décembre il y avait 2 939 nouveaux cas et 83 décès, portant le nombre de cas à 9 358 dont 205 décès[20].
-En janvier 2021 il y avait 6 353 nouveaux cas et 360 décès, portant le nombre de cas à 15 711 dont 565 décès[21].
-En février 2021 il y avait 1 303 nouveaux cas et 87 décès, portant le nombre de cas à 17 014 dont 652 décès[22].
-En mars 2021 il y avait 323 nouveaux cas et 15 décès, portant le nombre de cas à 17 337 dont 667 décès[23].
-En avril 2021 il y avait 1 121 nouveaux cas et quatre décès, portant le nombre de cas à 18 458 dont 671 décès[24].
-En mai 2021 il y avait 133 nouveaux cas et deux décès, portant le nombre de cas à 18 591 dont 673 décès[25].
-En juin 2021 il y avait 493 nouveaux cas et cinq décès, portant le nombre de cas à 19 084 dont 678 décès[26].
-En juillet 2021 il y avait 6 895 nouveaux cas et 109 décès, portant le nombre de cas à 25 979 dont 787 décès[27].
-En août 2021 il y avait 17 392 nouveaux cas et 314 décès, portant le nombre de cas à 43 371 dont 1 101 décès[28].
-En septembre 2021 il y avait 2 553 nouveaux cas et 119 décès, portant le nombre de cas à 45 924 dont 1 220 décès[29].
-En octobre 2021 il y avait 497 nouveaux cas et 22 décès, portant le nombre de cas à 46 421 dont 1 242 décès[30].
-En novembre 2021 il y avait 235 nouveaux cas et six décès, portant le nombre de cas à 46 656 dont 1 248 décès[31].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 mars, le premier cas de Covid-19 dans le pays a été confirmé. Une femme de 33 ans, qui est revenue des États-Unis fin février et s'est ensuite rendue au Lesotho avant de rentrer chez elle en Eswatini, a été mise en quarantaine. Deux cas suspects ont été identifiés au 11 mars 2020, le premier une femme rentrant du Danemark (ou peut-être de l'Allemagne), et l'autre une femme ayant accueilli des visiteurs allemands. 
+Le 24 mars 2020, le ministère de la santé a annoncé un cinquième cas confirmé. Un homme de 52 ans qui s'était rendu aux États-Unis au cours du même mois avait un résultat positif. 
+Le 16 avril 2020, le pays a enregistré son premier décès lié au COVID-19, un homme de 59 ans atteint de diabète comme affection sous-jacente.
+En avril il y avait 91 nouveaux cas, portant le nombre de cas à 100 dont un décès.
+En mai il y avait 185 nouveaux cas et un décès, portant le nombre de cas à 285 dont deux décès.
+En juin il y avait 527 nouveaux cas et neuf décès, portant le nombre de cas à 812 dont onze décès.
+En juillet il y avait 1 836 nouveaux cas et 29 décès, portant le nombre de cas à 2 648 dont 40 décès.
+En août il y avait 1 929 nouveaux cas et 51 décès, portant le nombre de cas à 4 577 dont 91 décès.
+En septembre il y avait 885 nouveaux cas et 17 décès, portant le nombre de cas à 5 462 dont 108 décès.
+En octobre il y avait 455 nouveaux cas et neuf décès, portant le nombre de cas à 5 917 dont 117 décès.
+En novembre il y avait 502 nouveaux cas et cinq décès, portant le nombre de cas à 6 419 dont 122 décès.
+En décembre il y avait 2 939 nouveaux cas et 83 décès, portant le nombre de cas à 9 358 dont 205 décès.
+En janvier 2021 il y avait 6 353 nouveaux cas et 360 décès, portant le nombre de cas à 15 711 dont 565 décès.
+En février 2021 il y avait 1 303 nouveaux cas et 87 décès, portant le nombre de cas à 17 014 dont 652 décès.
+En mars 2021 il y avait 323 nouveaux cas et 15 décès, portant le nombre de cas à 17 337 dont 667 décès.
+En avril 2021 il y avait 1 121 nouveaux cas et quatre décès, portant le nombre de cas à 18 458 dont 671 décès.
+En mai 2021 il y avait 133 nouveaux cas et deux décès, portant le nombre de cas à 18 591 dont 673 décès.
+En juin 2021 il y avait 493 nouveaux cas et cinq décès, portant le nombre de cas à 19 084 dont 678 décès.
+En juillet 2021 il y avait 6 895 nouveaux cas et 109 décès, portant le nombre de cas à 25 979 dont 787 décès.
+En août 2021 il y avait 17 392 nouveaux cas et 314 décès, portant le nombre de cas à 43 371 dont 1 101 décès.
+En septembre 2021 il y avait 2 553 nouveaux cas et 119 décès, portant le nombre de cas à 45 924 dont 1 220 décès.
+En octobre 2021 il y avait 497 nouveaux cas et 22 décès, portant le nombre de cas à 46 421 dont 1 242 décès.
+En novembre 2021 il y avait 235 nouveaux cas et six décès, portant le nombre de cas à 46 656 dont 1 248 décès.
 En décembre 2021 il y avait 19 453 nouveaux cas et 55 décès, portant le nombre de cas à 66 109 dont 1 303 décès.
-En janvier 2022 il y avait 2 233 nouveaux cas et 72 décès, portant le nombre de cas à 68 342 dont 1 375 décès[32].
-En février 2022 il y avait 788 nouveaux cas et 15 décès, portant le nombre de cas à 69 130 dont 1 390 décès[33].
+En janvier 2022 il y avait 2 233 nouveaux cas et 72 décès, portant le nombre de cas à 68 342 dont 1 375 décès.
+En février 2022 il y avait 788 nouveaux cas et 15 décès, portant le nombre de cas à 69 130 dont 1 390 décès.
 En mars 2022 il y avait 641 nouveaux cas et quatre décès, portant le nombre de cas à 69 771 dont 1 394 décès.
-En avril 2022 il y avait 886 nouveaux cas et trois décès, portant le nombre de cas à 70 657 dont 1 397 décès[34].
-En mai 2022 il y avait 1 740 nouveaux cas et dix décès, portant le nombre de cas à 72 397 dont 1 407 décès[35].
+En avril 2022 il y avait 886 nouveaux cas et trois décès, portant le nombre de cas à 70 657 dont 1 397 décès.
+En mai 2022 il y avait 1 740 nouveaux cas et dix décès, portant le nombre de cas à 72 397 dont 1 407 décès.
 En juin 2022 il y avait 712 nouveaux cas et neuf décès, portant le nombre de cas à 73 109 dont 1 416 décès.
-En juillet 2022 il y avait 171 nouveaux cas et un décès, portant le nombre de cas à 73 280 dont 1 417 décès[36].
-En août 2022 il y avait 88 nouveaux cas et cinq décès, portant le nombre de cas à 73 368 dont 1 422 décès[37].
-En septembre 2022 il y avait 22 nouveaux cas, portant le nombre de cas à 73 390 dont 1 422 décès[38].
-En octobre 2022 il y avait 168 nouveaux cas, portant le nombre de cas à 73 558 dont 1 422 décès[39].
-En novembre 2022 il y avait 350 nouveaux cas, portant le nombre de cas à 73 908 dont 1 422 décès[40].
-En décembre 2022 il y avait 126 nouveaux cas, portant le nombre de cas à 74 034 dont 1 422 décès[41].
+En juillet 2022 il y avait 171 nouveaux cas et un décès, portant le nombre de cas à 73 280 dont 1 417 décès.
+En août 2022 il y avait 88 nouveaux cas et cinq décès, portant le nombre de cas à 73 368 dont 1 422 décès.
+En septembre 2022 il y avait 22 nouveaux cas, portant le nombre de cas à 73 390 dont 1 422 décès.
+En octobre 2022 il y avait 168 nouveaux cas, portant le nombre de cas à 73 558 dont 1 422 décès.
+En novembre 2022 il y avait 350 nouveaux cas, portant le nombre de cas à 73 908 dont 1 422 décès.
+En décembre 2022 il y avait 126 nouveaux cas, portant le nombre de cas à 74 034 dont 1 422 décès.
 En 2023 il y avait 1 157 nouveaux cas et 5 décès, portant le nombre de cas à 75 191 dont 1 427 décès.
 </t>
         </is>
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Eswatini</t>
+          <t>Pandémie_de_Covid-19_en_Eswatini</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,6 +628,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Eswatini</t>
+          <t>Pandémie_de_Covid-19_en_Eswatini</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +655,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
